--- a/Results_Data/ThresholdCalculation.xlsx
+++ b/Results_Data/ThresholdCalculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoliu/Documents/GitHub/Active-Learning-Using-various-representations/Results_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDD462B4-D75C-1A49-B41A-9E9755563F7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3331EB-4F47-324C-9977-BEB6997DCC1D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34540" yWindow="2740" windowWidth="28040" windowHeight="17300" xr2:uid="{7BB37A7F-70C0-CD45-8AF9-3333DCF039B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Algorithm</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>note: threshold is the 10% of the difference between largest MAE and MAE for optimal dataset</t>
+  </si>
+  <si>
+    <t>note: threshold is the 20% of the difference between largest MAE and MAE for optimal dataset</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D13057D-4811-D346-824F-F527C6946D66}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -462,6 +465,57 @@
         <v>125</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
